--- a/Project1JavaTry2/excel/worstFitData.xlsx
+++ b/Project1JavaTry2/excel/worstFitData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\School Work\_College Sp 2016\Op Sys\CS4323Projects\Project1JavaTry2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoalie\Documents\GitHub\CS4323Projects\Project1JavaTry2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Chart4" sheetId="5" r:id="rId4"/>
     <sheet name="firstFitData" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -631,7 +631,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -711,151 +710,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520</c:v>
+                  <c:v>541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>805</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>930</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1035</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1115</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1325</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1425</c:v>
+                  <c:v>1456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1515</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1610</c:v>
+                  <c:v>1611</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1725</c:v>
+                  <c:v>1716</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1805</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1950</c:v>
+                  <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2115</c:v>
+                  <c:v>2116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2220</c:v>
+                  <c:v>2221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2315</c:v>
+                  <c:v>2311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2405</c:v>
+                  <c:v>2431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2515</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2601</c:v>
+                  <c:v>2621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2704</c:v>
+                  <c:v>2731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2802</c:v>
+                  <c:v>2826</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2936</c:v>
+                  <c:v>2906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3010</c:v>
+                  <c:v>3051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3107</c:v>
+                  <c:v>3116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3215</c:v>
+                  <c:v>3221</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3304</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3403</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3508</c:v>
+                  <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3624</c:v>
+                  <c:v>3619</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3705</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3801</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3903</c:v>
+                  <c:v>3904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4022</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4119</c:v>
+                  <c:v>4104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4205</c:v>
+                  <c:v>4202</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4406</c:v>
+                  <c:v>4401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4501</c:v>
+                  <c:v>4508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4605</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4703</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4819</c:v>
+                  <c:v>4803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4908</c:v>
+                  <c:v>4910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,58 +866,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>61</c:v>
@@ -933,85 +932,85 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>76</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>79</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>79</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>81</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>82</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>84</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>89</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>89</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>91</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>95</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>95</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>95</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>95</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>96</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,151 +1061,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520</c:v>
+                  <c:v>541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>805</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>930</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1035</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1115</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1325</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1425</c:v>
+                  <c:v>1456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1515</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1610</c:v>
+                  <c:v>1611</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1725</c:v>
+                  <c:v>1716</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1805</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1950</c:v>
+                  <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2115</c:v>
+                  <c:v>2116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2220</c:v>
+                  <c:v>2221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2315</c:v>
+                  <c:v>2311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2405</c:v>
+                  <c:v>2431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2515</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2601</c:v>
+                  <c:v>2621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2704</c:v>
+                  <c:v>2731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2802</c:v>
+                  <c:v>2826</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2936</c:v>
+                  <c:v>2906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3010</c:v>
+                  <c:v>3051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3107</c:v>
+                  <c:v>3116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3215</c:v>
+                  <c:v>3221</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3304</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3403</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3508</c:v>
+                  <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3624</c:v>
+                  <c:v>3619</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3705</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3801</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3903</c:v>
+                  <c:v>3904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4022</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4119</c:v>
+                  <c:v>4104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4205</c:v>
+                  <c:v>4202</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4406</c:v>
+                  <c:v>4401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4501</c:v>
+                  <c:v>4508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4605</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4703</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4819</c:v>
+                  <c:v>4803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4908</c:v>
+                  <c:v>4910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,151 +1217,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>244</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>378</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>399</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>415</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>431</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>444</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>463</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>480</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>487</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>504</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>526</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>541</c:v>
+                  <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>552</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>575</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>592</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>607</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>619</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>630</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>654</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>672</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>686</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>703</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>722</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>741</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>754</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>778</c:v>
+                  <c:v>746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1377,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-849791472"/>
-        <c:axId val="-849798000"/>
+        <c:axId val="2060790480"/>
+        <c:axId val="2060782320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-849791472"/>
+        <c:axId val="2060790480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1428,7 +1427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1495,12 +1493,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849798000"/>
+        <c:crossAx val="2060782320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-849798000"/>
+        <c:axId val="2060782320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1613,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849791472"/>
+        <c:crossAx val="2060790480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1627,7 +1624,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1729,7 +1725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1806,151 +1801,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520</c:v>
+                  <c:v>541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>805</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>930</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1035</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1115</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1325</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1425</c:v>
+                  <c:v>1456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1515</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1610</c:v>
+                  <c:v>1611</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1725</c:v>
+                  <c:v>1716</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1805</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1950</c:v>
+                  <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2115</c:v>
+                  <c:v>2116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2220</c:v>
+                  <c:v>2221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2315</c:v>
+                  <c:v>2311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2405</c:v>
+                  <c:v>2431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2515</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2601</c:v>
+                  <c:v>2621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2704</c:v>
+                  <c:v>2731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2802</c:v>
+                  <c:v>2826</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2936</c:v>
+                  <c:v>2906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3010</c:v>
+                  <c:v>3051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3107</c:v>
+                  <c:v>3116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3215</c:v>
+                  <c:v>3221</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3304</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3403</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3508</c:v>
+                  <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3624</c:v>
+                  <c:v>3619</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3705</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3801</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3903</c:v>
+                  <c:v>3904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4022</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4119</c:v>
+                  <c:v>4104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4205</c:v>
+                  <c:v>4202</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4406</c:v>
+                  <c:v>4401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4501</c:v>
+                  <c:v>4508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4605</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4703</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4819</c:v>
+                  <c:v>4803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4908</c:v>
+                  <c:v>4910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,151 +1957,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>117.5</c:v>
+                  <c:v>193.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.22222</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.846153000000001</c:v>
+                  <c:v>91.666663999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>83.333336000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.842100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.142859999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.260869999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.888890000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.928570000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.379309999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.461539999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.076923000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.153846999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.857143000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.193550000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.6875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.666668000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>42.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.285713000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.636364</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46.666668000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45.185184</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43.928570000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42.592593999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.214286999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42.857143000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42.333331999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42.258063999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43.030304000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42.571429999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.645159999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.9375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.606059999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42.22222</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>41.944443</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>42.105263000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41.842106000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41.578949999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42.051279999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42.051279999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42.051279999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>41.578949999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41.794871999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41.794871999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41.578949999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41.578949999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>41.794871999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>41.794871999999998</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.578949999999999</c:v>
+                  <c:v>41.142856999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>41.388890000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40.294117</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40.571429999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41.578949999999999</c:v>
+                  <c:v>40.833331999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.578949999999999</c:v>
+                  <c:v>40.833331999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40.833331999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40.833331999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40.833331999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40.285713000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>39.090907999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>41.578949999999999</c:v>
+                  <c:v>39.411766</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>41.794871999999998</c:v>
+                  <c:v>40.27778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,11 +2116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-849780048"/>
-        <c:axId val="-541814416"/>
+        <c:axId val="2060783408"/>
+        <c:axId val="2060788848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-849780048"/>
+        <c:axId val="2060783408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2183,12 +2178,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541814416"/>
+        <c:crossAx val="2060788848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541814416"/>
+        <c:axId val="2060788848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849780048"/>
+        <c:crossAx val="2060783408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,7 +2328,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2410,151 +2404,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520</c:v>
+                  <c:v>541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>805</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>930</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1035</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1115</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1325</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1425</c:v>
+                  <c:v>1456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1515</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1610</c:v>
+                  <c:v>1611</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1725</c:v>
+                  <c:v>1716</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1805</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1950</c:v>
+                  <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2115</c:v>
+                  <c:v>2116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2220</c:v>
+                  <c:v>2221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2315</c:v>
+                  <c:v>2311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2405</c:v>
+                  <c:v>2431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2515</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2601</c:v>
+                  <c:v>2621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2704</c:v>
+                  <c:v>2731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2802</c:v>
+                  <c:v>2826</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2936</c:v>
+                  <c:v>2906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3010</c:v>
+                  <c:v>3051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3107</c:v>
+                  <c:v>3116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3215</c:v>
+                  <c:v>3221</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3304</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3403</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3508</c:v>
+                  <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3624</c:v>
+                  <c:v>3619</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3705</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3801</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3903</c:v>
+                  <c:v>3904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4022</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4119</c:v>
+                  <c:v>4104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4205</c:v>
+                  <c:v>4202</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4406</c:v>
+                  <c:v>4401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4501</c:v>
+                  <c:v>4508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4605</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4703</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4819</c:v>
+                  <c:v>4803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4908</c:v>
+                  <c:v>4910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,148 +2563,148 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>280</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>280</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>280</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>280</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>310</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>330</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>330</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>330</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>330</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,11 +2719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-541789936"/>
-        <c:axId val="-541804624"/>
+        <c:axId val="131005920"/>
+        <c:axId val="131006464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-541789936"/>
+        <c:axId val="131005920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -2787,12 +2781,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541804624"/>
+        <c:crossAx val="131006464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541804624"/>
+        <c:axId val="131006464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,7 +2843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541789936"/>
+        <c:crossAx val="131005920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2933,7 +2927,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3010,151 +3003,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520</c:v>
+                  <c:v>541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>735</c:v>
+                  <c:v>736</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>805</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>930</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1035</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1115</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1215</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1325</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1425</c:v>
+                  <c:v>1456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1515</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1610</c:v>
+                  <c:v>1611</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1725</c:v>
+                  <c:v>1716</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1805</c:v>
+                  <c:v>1811</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1950</c:v>
+                  <c:v>1901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2115</c:v>
+                  <c:v>2116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2220</c:v>
+                  <c:v>2221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2315</c:v>
+                  <c:v>2311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2405</c:v>
+                  <c:v>2431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2515</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2601</c:v>
+                  <c:v>2621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2704</c:v>
+                  <c:v>2731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2802</c:v>
+                  <c:v>2826</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2936</c:v>
+                  <c:v>2906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3010</c:v>
+                  <c:v>3051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3107</c:v>
+                  <c:v>3116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3215</c:v>
+                  <c:v>3221</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3304</c:v>
+                  <c:v>3305</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3403</c:v>
+                  <c:v>3406</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3508</c:v>
+                  <c:v>3507</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3624</c:v>
+                  <c:v>3619</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3705</c:v>
+                  <c:v>3704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3801</c:v>
+                  <c:v>3849</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3903</c:v>
+                  <c:v>3904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4022</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4119</c:v>
+                  <c:v>4104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4205</c:v>
+                  <c:v>4202</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4301</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4406</c:v>
+                  <c:v>4401</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4501</c:v>
+                  <c:v>4508</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4605</c:v>
+                  <c:v>4603</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4703</c:v>
+                  <c:v>4723</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4819</c:v>
+                  <c:v>4803</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4908</c:v>
+                  <c:v>4910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3166,103 +3159,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="342"/>
                 <c:pt idx="0">
-                  <c:v>73.888885000000002</c:v>
+                  <c:v>67.777780000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.111114999999998</c:v>
+                  <c:v>76.111114999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.888885000000002</c:v>
+                  <c:v>56.666668000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.55556</c:v>
+                  <c:v>39.444443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.777780000000007</c:v>
+                  <c:v>37.77778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.666668000000001</c:v>
+                  <c:v>29.444445000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.77778</c:v>
+                  <c:v>17.777778999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.111109999999996</c:v>
+                  <c:v>20.555554999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>11.666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.222221000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.555555</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.444445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.333331999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>34.444443</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.88889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.555554999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.77778</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29.444445000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.555554999999998</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.333334000000001</c:v>
+                  <c:v>26.666665999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>18.88889</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.11111</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>20.555554999999998</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>14.444445</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.7777776999999997</c:v>
-                </c:pt>
                 <c:pt idx="20">
+                  <c:v>16.11111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.222222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.777778</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>10.555555</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.8888890000000007</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.888889000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.333333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.777778999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.222221000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.111110999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>3.3333333000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.7777777000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.3333333000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.7777777000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.7777777000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.7777777000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -3271,22 +3264,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7777777000000001</c:v>
+                  <c:v>3.3333333000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>5.5555553</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.7777777000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.7777777000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.7777777000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -3298,16 +3291,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>3.3333333000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>3.3333333000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>8.8888890000000007</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7777777000000001</c:v>
+                  <c:v>6.1111110000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -3325,11 +3318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-541792112"/>
-        <c:axId val="-541813328"/>
+        <c:axId val="131002112"/>
+        <c:axId val="130999392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-541792112"/>
+        <c:axId val="131002112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -3387,12 +3380,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541813328"/>
+        <c:crossAx val="130999392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-541813328"/>
+        <c:axId val="130999392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,7 +3442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-541792112"/>
+        <c:crossAx val="131002112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6139,13 +6132,12 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="D49" sqref="D1:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6153,23 +6145,23 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1">
         <f ca="1">OFFSET(B$8,7*(ROW()-2),0)</f>
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>4</v>
+        <f t="shared" ref="E1:E6" ca="1" si="0">OFFSET(B$9,7*(ROW()-2),0)</f>
+        <v>3</v>
       </c>
       <c r="F1" s="1">
         <f ca="1">OFFSET(B$10,7*(ROW()-2),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f ca="1">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>117.5</v>
+        <v>193.33332999999999</v>
       </c>
       <c r="H1" s="1">
         <f ca="1">OFFSET(B$12,7*(ROW()-2),0)</f>
@@ -6177,7 +6169,7 @@
       </c>
       <c r="I1" s="1">
         <f ca="1">OFFSET(B$13,7*(ROW()-2),0)</f>
-        <v>73.888885000000002</v>
+        <v>67.777780000000007</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6185,32 +6177,32 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D49" ca="1" si="0">OFFSET(B$8,7*(ROW()-2),0)</f>
-        <v>245</v>
+        <f t="shared" ref="D2:D49" ca="1" si="1">OFFSET(B$8,7*(ROW()-2),0)</f>
+        <v>221</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F49" ca="1" si="1">OFFSET(B$10,7*(ROW()-2),0)</f>
-        <v>18</v>
+        <f t="shared" ref="F2:F49" ca="1" si="2">OFFSET(B$10,7*(ROW()-2),0)</f>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G49" ca="1" si="2">OFFSET(B$11,7*(ROW()-2),0)</f>
-        <v>68</v>
+        <f t="shared" ref="G2:G49" ca="1" si="3">OFFSET(B$11,7*(ROW()-2),0)</f>
+        <v>84</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H49" ca="1" si="3">OFFSET(B$12,7*(ROW()-2),0)</f>
-        <v>0</v>
+        <f t="shared" ref="H2:H49" ca="1" si="4">OFFSET(B$12,7*(ROW()-2),0)</f>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I49" ca="1" si="4">OFFSET(B$13,7*(ROW()-2),0)</f>
-        <v>81.111114999999998</v>
+        <f t="shared" ref="I2:I49" ca="1" si="5">OFFSET(B$13,7*(ROW()-2),0)</f>
+        <v>76.111114999999998</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6218,31 +6210,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="E3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="E3" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>52.22222</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>96.25</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>73.888885000000002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>56.666668000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6250,31 +6242,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>117.5</v>
+        <v>193.33332999999999</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>410</v>
-      </c>
-      <c r="E4" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>70.55556</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>39.444443</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6285,28 +6277,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>541</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="E5" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.846153000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>91.666663999999997</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>67.777780000000007</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>37.77778</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6314,57 +6306,57 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>73.888885000000002</v>
+        <v>67.777780000000007</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>641</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>605</v>
-      </c>
-      <c r="E6" s="1">
-        <f ca="1">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>83.333336000000003</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>180</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>61.666668000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>29.444445000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>735</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>736</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E70" ca="1" si="5">OFFSET(B$9,7*(ROW()-2),0)</f>
-        <v>26</v>
+        <f t="shared" ref="E7:E49" ca="1" si="6">OFFSET(B$9,7*(ROW()-2),0)</f>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>44.285713000000001</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>76.842100000000002</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>210</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>47.77778</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>17.777778999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6372,31 +6364,31 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>805</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>806</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>67.142859999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.636364</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>46.111109999999996</v>
+        <v>20.555554999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6404,31 +6396,31 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>930</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>921</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>68.260869999999997</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>48.333331999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>34.444443</v>
+        <v>11.666667</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6436,31 +6428,31 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1035</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1036</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>131</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>46.666668000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>28.88889</v>
+        <v>22.222221000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,31 +6460,31 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1115</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1131</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>58.888890000000004</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>147</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>45.185184</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>30.555554999999998</v>
+        <v>10.555555</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6500,31 +6492,31 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1215</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1201</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.928570000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>164</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.928570000000001</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>14.444445</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6532,57 +6524,57 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>81.111114999999998</v>
+        <v>76.111114999999998</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1325</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1316</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>51.379309999999997</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.592593999999998</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>32.77778</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1425</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1456</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.461539999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>193</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.214286999999999</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>29.444445000000002</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6590,31 +6582,31 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1515</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1506</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.076923000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>207</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.857143000000001</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>33.333331999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6622,31 +6614,31 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1610</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1611</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.153846999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>221</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.333331999999999</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>25.555554999999998</v>
+        <v>34.444443</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6654,31 +6646,31 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1725</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1716</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.857143000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>244</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.333331999999999</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>23.333334000000001</v>
+        <v>26.666665999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6686,31 +6678,31 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>52.22222</v>
+        <v>96.25</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1805</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1811</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44.666668000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.258063999999997</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>20.555554999999998</v>
+        <v>18.88889</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6718,31 +6710,31 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1950</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1901</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.333331999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>277</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>43.030304000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>14.444445</v>
+        <v>21.11111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6750,57 +6742,57 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>73.888885000000002</v>
+        <v>56.666668000000001</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2015</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2016</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43.333331999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>291</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.7777776999999997</v>
+        <v>20.555554999999998</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2115</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2116</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44.193550000000002</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>306</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.571429999999999</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>10.555555</v>
+        <v>16.11111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6808,31 +6800,31 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2220</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2221</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44.6875</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.944443</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.8888890000000007</v>
+        <v>12.222222</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6840,31 +6832,31 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2315</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2311</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>44.375</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.105263000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3333333000000001</v>
+        <v>12.777778</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -6872,31 +6864,31 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2405</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2431</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>358</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.842106000000001</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>10.555555</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -6904,31 +6896,31 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2515</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2521</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.666668000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>378</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3333333000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -6936,31 +6928,31 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2601</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2621</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.5</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>399</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.051279999999998</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>13.888889000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6968,57 +6960,57 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>70.55556</v>
+        <v>39.444443</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2704</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2731</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.1875</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>415</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.051279999999998</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>13.333333</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2802</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2826</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>431</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>42.051279999999998</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>22.777778999999999</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -7026,31 +7018,31 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2936</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2906</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.645159999999997</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>17.222221000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -7058,31 +7050,31 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3010</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3051</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.9375</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>463</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>13.333333</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -7090,31 +7082,31 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3107</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3116</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>428</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.625</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>13.333333</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -7122,31 +7114,31 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>43.846153000000001</v>
+        <v>91.666663999999997</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3215</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3221</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>446</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.606059999999999</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>487</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>11.111110999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7154,31 +7146,31 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3304</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3305</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>465</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>504</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7186,56 +7178,56 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>67.777780000000007</v>
+        <v>37.77778</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3403</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3406</v>
       </c>
       <c r="E34" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>483</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>42.22222</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>526</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3508</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3507</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>114</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>501</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.944443</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>541</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7244,31 +7236,31 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>605</v>
+        <v>641</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3624</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3619</v>
       </c>
       <c r="E36" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>518</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.142856999999999</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>552</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -7276,30 +7268,30 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3705</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3704</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.388890000000004</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7308,31 +7300,31 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3801</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3849</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>119</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>547</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.294117</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>592</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5.5555553</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -7340,31 +7332,31 @@
         <v>3</v>
       </c>
       <c r="B39">
-        <v>42.5</v>
+        <v>83.333336000000003</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3903</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3904</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.571429999999999</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>607</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2.7777777000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7372,31 +7364,31 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4022</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4003</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>121</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>591</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.833331999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>619</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7404,56 +7396,56 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>61.666668000000001</v>
+        <v>29.444445000000002</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4119</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4104</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>609</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.833331999999999</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>630</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4205</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4202</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.833331999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>654</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7462,30 +7454,30 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>4301</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>645</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.833331999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>672</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7494,30 +7486,30 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4406</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4401</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>661</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.833331999999999</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>686</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7526,31 +7518,31 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4501</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4508</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>674</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.285713000000001</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>703</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I45" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7558,31 +7550,31 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>44.285713000000001</v>
+        <v>76.842100000000002</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4605</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4603</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>722</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7590,31 +7582,31 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4703</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4723</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>129</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>711</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.090907999999999</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>741</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8.8888890000000007</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -7622,56 +7614,56 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <v>47.77778</v>
+        <v>17.777778999999999</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4819</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4803</v>
       </c>
       <c r="E48" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>721</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>39.411766</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>754</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.578949999999999</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.7777777000000001</v>
+        <v>6.1111110000000002</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4908</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4910</v>
       </c>
       <c r="E49" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>746</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.27778</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>778</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>41.794871999999998</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7680,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E50" s="1"/>
     </row>
@@ -7689,7 +7681,7 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -7698,7 +7690,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -7707,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>43.636364</v>
+        <v>67.142859999999999</v>
       </c>
       <c r="E53" s="1"/>
     </row>
@@ -7716,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="B54">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E54" s="1"/>
     </row>
@@ -7725,7 +7717,7 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>46.111109999999996</v>
+        <v>20.555554999999998</v>
       </c>
       <c r="E55" s="1"/>
     </row>
@@ -7737,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E57" s="1"/>
     </row>
@@ -7746,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E58" s="1"/>
     </row>
@@ -7755,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="E59" s="1"/>
     </row>
@@ -7764,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>48.333331999999999</v>
+        <v>68.260869999999997</v>
       </c>
       <c r="E60" s="1"/>
     </row>
@@ -7773,7 +7765,7 @@
         <v>4</v>
       </c>
       <c r="B61">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1"/>
     </row>
@@ -7782,7 +7774,7 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>34.444443</v>
+        <v>11.666667</v>
       </c>
       <c r="E62" s="1"/>
     </row>
@@ -7794,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E64" s="1"/>
     </row>
@@ -7803,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -7812,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="E66" s="1"/>
     </row>
@@ -7821,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>46.666668000000001</v>
+        <v>57.5</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -7830,7 +7822,7 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="E68" s="1"/>
     </row>
@@ -7839,7 +7831,7 @@
         <v>5</v>
       </c>
       <c r="B69">
-        <v>28.88889</v>
+        <v>22.222221000000001</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -7851,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>1115</v>
+        <v>1131</v>
       </c>
       <c r="E71" s="1"/>
     </row>
@@ -7860,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -7869,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -7878,7 +7870,7 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>45.185184</v>
+        <v>58.888890000000004</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -7887,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="E75" s="1"/>
     </row>
@@ -7896,7 +7888,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>30.555554999999998</v>
+        <v>10.555555</v>
       </c>
       <c r="E76" s="1"/>
     </row>
@@ -7908,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="E78" s="1"/>
     </row>
@@ -7926,7 +7918,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="E80" s="1"/>
     </row>
@@ -7935,7 +7927,7 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>43.928570000000001</v>
+        <v>53.928570000000001</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -7944,7 +7936,7 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E82" s="1"/>
     </row>
@@ -7953,7 +7945,7 @@
         <v>5</v>
       </c>
       <c r="B83">
-        <v>30</v>
+        <v>14.444445</v>
       </c>
       <c r="E83" s="1"/>
     </row>
@@ -7965,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -7974,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E86" s="1"/>
     </row>
@@ -7983,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="B87">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -7992,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>42.592593999999998</v>
+        <v>51.379309999999997</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -8010,7 +8002,7 @@
         <v>5</v>
       </c>
       <c r="B90">
-        <v>32.77778</v>
+        <v>15</v>
       </c>
       <c r="E90" s="1"/>
     </row>
@@ -8022,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -8031,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E93" s="1"/>
     </row>
@@ -8040,7 +8032,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="E94" s="1"/>
     </row>
@@ -8049,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>43.214286999999999</v>
+        <v>43.461539999999999</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -8058,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -8067,7 +8059,7 @@
         <v>5</v>
       </c>
       <c r="B97">
-        <v>29.444445000000002</v>
+        <v>33.333331999999999</v>
       </c>
       <c r="E97" s="1"/>
     </row>
@@ -8079,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="E99" s="1"/>
     </row>
@@ -8088,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E100" s="1"/>
     </row>
@@ -8097,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="B101">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="E101" s="1"/>
     </row>
@@ -8106,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>42.857143000000001</v>
+        <v>43.076923000000001</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -8115,7 +8107,7 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E103" s="1"/>
     </row>
@@ -8124,7 +8116,7 @@
         <v>5</v>
       </c>
       <c r="B104">
-        <v>30</v>
+        <v>33.333331999999999</v>
       </c>
       <c r="E104" s="1"/>
     </row>
@@ -8136,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="B106">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E106" s="1"/>
     </row>
@@ -8145,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E107" s="1"/>
     </row>
@@ -8154,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="B108">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="E108" s="1"/>
     </row>
@@ -8163,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>42.333331999999999</v>
+        <v>41.153846999999999</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -8172,7 +8164,7 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E110" s="1"/>
     </row>
@@ -8181,7 +8173,7 @@
         <v>5</v>
       </c>
       <c r="B111">
-        <v>25.555554999999998</v>
+        <v>34.444443</v>
       </c>
       <c r="E111" s="1"/>
     </row>
@@ -8193,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="B113">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="E113" s="1"/>
     </row>
@@ -8202,7 +8194,7 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E114" s="1"/>
     </row>
@@ -8211,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="B115">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="E115" s="1"/>
     </row>
@@ -8220,7 +8212,7 @@
         <v>3</v>
       </c>
       <c r="B116">
-        <v>42.333331999999999</v>
+        <v>42.857143000000001</v>
       </c>
       <c r="E116" s="1"/>
     </row>
@@ -8229,7 +8221,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E117" s="1"/>
     </row>
@@ -8238,7 +8230,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>23.333334000000001</v>
+        <v>26.666665999999999</v>
       </c>
       <c r="E118" s="1"/>
     </row>
@@ -8250,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>1805</v>
+        <v>1811</v>
       </c>
       <c r="E120" s="1"/>
     </row>
@@ -8259,7 +8251,7 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E121" s="1"/>
     </row>
@@ -8268,7 +8260,7 @@
         <v>2</v>
       </c>
       <c r="B122">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="E122" s="1"/>
     </row>
@@ -8277,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="B123">
-        <v>42.258063999999997</v>
+        <v>44.666668000000001</v>
       </c>
       <c r="E123" s="1"/>
     </row>
@@ -8286,7 +8278,7 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E124" s="1"/>
     </row>
@@ -8295,7 +8287,7 @@
         <v>5</v>
       </c>
       <c r="B125">
-        <v>20.555554999999998</v>
+        <v>18.88889</v>
       </c>
       <c r="E125" s="1"/>
     </row>
@@ -8307,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <v>1950</v>
+        <v>1901</v>
       </c>
       <c r="E127" s="1"/>
     </row>
@@ -8325,7 +8317,7 @@
         <v>2</v>
       </c>
       <c r="B129">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="E129" s="1"/>
     </row>
@@ -8334,7 +8326,7 @@
         <v>3</v>
       </c>
       <c r="B130">
-        <v>43.030304000000001</v>
+        <v>43.333331999999999</v>
       </c>
       <c r="E130" s="1"/>
     </row>
@@ -8343,7 +8335,7 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E131" s="1"/>
     </row>
@@ -8352,7 +8344,7 @@
         <v>5</v>
       </c>
       <c r="B132">
-        <v>14.444445</v>
+        <v>21.11111</v>
       </c>
       <c r="E132" s="1"/>
     </row>
@@ -8364,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E134" s="1"/>
     </row>
@@ -8382,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="B136">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="E136" s="1"/>
     </row>
@@ -8391,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="B137">
-        <v>44</v>
+        <v>43.333331999999999</v>
       </c>
       <c r="E137" s="1"/>
     </row>
@@ -8400,7 +8392,7 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E138" s="1"/>
     </row>
@@ -8409,7 +8401,7 @@
         <v>5</v>
       </c>
       <c r="B139">
-        <v>7.7777776999999997</v>
+        <v>20.555554999999998</v>
       </c>
       <c r="E139" s="1"/>
     </row>
@@ -8421,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="B141">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="E141" s="1"/>
     </row>
@@ -8439,7 +8431,7 @@
         <v>2</v>
       </c>
       <c r="B143">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="E143" s="1"/>
     </row>
@@ -8448,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="B144">
-        <v>42.571429999999999</v>
+        <v>44.193550000000002</v>
       </c>
       <c r="E144" s="1"/>
     </row>
@@ -8457,7 +8449,7 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E145" s="1"/>
     </row>
@@ -8466,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="B146">
-        <v>10.555555</v>
+        <v>16.11111</v>
       </c>
       <c r="E146" s="1"/>
     </row>
@@ -8478,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="E148" s="1"/>
     </row>
@@ -8496,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="B150">
-        <v>326</v>
+        <v>145</v>
       </c>
       <c r="E150" s="1"/>
     </row>
@@ -8505,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="B151">
-        <v>41.944443</v>
+        <v>44.6875</v>
       </c>
       <c r="E151" s="1"/>
     </row>
@@ -8514,7 +8506,7 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E152" s="1"/>
     </row>
@@ -8523,7 +8515,7 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>8.8888890000000007</v>
+        <v>12.222222</v>
       </c>
       <c r="E153" s="1"/>
     </row>
@@ -8535,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="B155">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="E155" s="1"/>
     </row>
@@ -8544,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="B156">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E156" s="1"/>
     </row>
@@ -8553,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="B157">
-        <v>340</v>
+        <v>174</v>
       </c>
       <c r="E157" s="1"/>
     </row>
@@ -8562,7 +8554,7 @@
         <v>3</v>
       </c>
       <c r="B158">
-        <v>42.105263000000001</v>
+        <v>44.375</v>
       </c>
       <c r="E158" s="1"/>
     </row>
@@ -8571,7 +8563,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E159" s="1"/>
     </row>
@@ -8580,7 +8572,7 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>3.3333333000000001</v>
+        <v>12.777778</v>
       </c>
       <c r="E160" s="1"/>
     </row>
@@ -8592,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="B162">
-        <v>2405</v>
+        <v>2431</v>
       </c>
       <c r="E162" s="1"/>
     </row>
@@ -8601,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="B163">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E163" s="1"/>
     </row>
@@ -8610,7 +8602,7 @@
         <v>2</v>
       </c>
       <c r="B164">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="E164" s="1"/>
     </row>
@@ -8619,7 +8611,7 @@
         <v>3</v>
       </c>
       <c r="B165">
-        <v>41.842106000000001</v>
+        <v>45</v>
       </c>
       <c r="E165" s="1"/>
     </row>
@@ -8628,7 +8620,7 @@
         <v>4</v>
       </c>
       <c r="B166">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E166" s="1"/>
     </row>
@@ -8637,7 +8629,7 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>2.7777777000000001</v>
+        <v>10.555555</v>
       </c>
       <c r="E167" s="1"/>
     </row>
@@ -8649,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="E169" s="1"/>
     </row>
@@ -8658,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="B170">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E170" s="1"/>
     </row>
@@ -8667,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="B171">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="E171" s="1"/>
     </row>
@@ -8676,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="B172">
-        <v>41.578949999999999</v>
+        <v>41.666668000000001</v>
       </c>
       <c r="E172" s="1"/>
     </row>
@@ -8685,7 +8677,7 @@
         <v>4</v>
       </c>
       <c r="B173">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E173" s="1"/>
     </row>
@@ -8694,7 +8686,7 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>3.3333333000000001</v>
+        <v>20</v>
       </c>
       <c r="E174" s="1"/>
     </row>
@@ -8706,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="B176">
-        <v>2601</v>
+        <v>2621</v>
       </c>
       <c r="E176" s="1"/>
     </row>
@@ -8715,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="B177">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E177" s="1"/>
     </row>
@@ -8724,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="B178">
-        <v>399</v>
+        <v>246</v>
       </c>
       <c r="E178" s="1"/>
     </row>
@@ -8733,7 +8725,7 @@
         <v>3</v>
       </c>
       <c r="B179">
-        <v>42.051279999999998</v>
+        <v>42.5</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -8742,7 +8734,7 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E180" s="1"/>
     </row>
@@ -8751,7 +8743,7 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>13.888889000000001</v>
       </c>
       <c r="E181" s="1"/>
     </row>
@@ -8763,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>2704</v>
+        <v>2731</v>
       </c>
       <c r="E183" s="1"/>
     </row>
@@ -8772,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E184" s="1"/>
     </row>
@@ -8781,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="B185">
-        <v>415</v>
+        <v>272</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -8789,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="B186">
-        <v>42.051279999999998</v>
+        <v>42.1875</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -8797,7 +8789,7 @@
         <v>4</v>
       </c>
       <c r="B187">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -8805,7 +8797,7 @@
         <v>5</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>13.333333</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -8813,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="B190">
-        <v>2802</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -8821,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -8829,7 +8821,7 @@
         <v>2</v>
       </c>
       <c r="B192">
-        <v>431</v>
+        <v>333</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -8837,7 +8829,7 @@
         <v>3</v>
       </c>
       <c r="B193">
-        <v>42.051279999999998</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -8845,7 +8837,7 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -8853,7 +8845,7 @@
         <v>5</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>22.777778999999999</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -8861,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="B197">
-        <v>2936</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -8869,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -8877,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="B199">
-        <v>444</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -8885,7 +8877,7 @@
         <v>3</v>
       </c>
       <c r="B200">
-        <v>41.578949999999999</v>
+        <v>40.645159999999997</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -8893,7 +8885,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -8901,7 +8893,7 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>2.7777777000000001</v>
+        <v>17.222221000000001</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -8909,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="B204">
-        <v>3010</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -8917,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="B205">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -8925,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="B206">
-        <v>463</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -8933,7 +8925,7 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>41.794871999999998</v>
+        <v>40.9375</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -8941,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="B208">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -8949,7 +8941,7 @@
         <v>5</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>13.333333</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -8957,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>3107</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -8965,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="B212">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -8973,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="B213">
-        <v>480</v>
+        <v>428</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -8981,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="B214">
-        <v>41.794871999999998</v>
+        <v>40.625</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -8989,7 +8981,7 @@
         <v>4</v>
       </c>
       <c r="B215">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -8997,7 +8989,7 @@
         <v>5</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>13.333333</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -9005,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>3215</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -9013,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="B219">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -9021,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="B220">
-        <v>487</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -9029,7 +9021,7 @@
         <v>3</v>
       </c>
       <c r="B221">
-        <v>41.578949999999999</v>
+        <v>40.606059999999999</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -9037,7 +9029,7 @@
         <v>4</v>
       </c>
       <c r="B222">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -9045,7 +9037,7 @@
         <v>5</v>
       </c>
       <c r="B223">
-        <v>2.7777777000000001</v>
+        <v>11.111110999999999</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -9053,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>3304</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -9061,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="B226">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -9069,7 +9061,7 @@
         <v>2</v>
       </c>
       <c r="B227">
-        <v>504</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -9077,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="B228">
-        <v>41.578949999999999</v>
+        <v>42</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -9085,7 +9077,7 @@
         <v>4</v>
       </c>
       <c r="B229">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -9093,7 +9085,7 @@
         <v>5</v>
       </c>
       <c r="B230">
-        <v>2.7777777000000001</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -9101,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>3403</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -9109,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="B233">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -9117,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="B234">
-        <v>526</v>
+        <v>483</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -9125,7 +9117,7 @@
         <v>3</v>
       </c>
       <c r="B235">
-        <v>41.794871999999998</v>
+        <v>42.22222</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -9133,7 +9125,7 @@
         <v>4</v>
       </c>
       <c r="B236">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -9149,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="B239">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -9157,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="B240">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -9165,7 +9157,7 @@
         <v>2</v>
       </c>
       <c r="B241">
-        <v>541</v>
+        <v>501</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -9173,7 +9165,7 @@
         <v>3</v>
       </c>
       <c r="B242">
-        <v>41.794871999999998</v>
+        <v>41.944443</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -9181,7 +9173,7 @@
         <v>4</v>
       </c>
       <c r="B243">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -9197,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="B246">
-        <v>3624</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -9205,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="B247">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -9213,7 +9205,7 @@
         <v>2</v>
       </c>
       <c r="B248">
-        <v>552</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -9221,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="B249">
-        <v>41.578949999999999</v>
+        <v>41.142856999999999</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -9229,7 +9221,7 @@
         <v>4</v>
       </c>
       <c r="B250">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -9237,7 +9229,7 @@
         <v>5</v>
       </c>
       <c r="B251">
-        <v>2.7777777000000001</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -9245,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="B253">
-        <v>3705</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -9253,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="B254">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -9261,7 +9253,7 @@
         <v>2</v>
       </c>
       <c r="B255">
-        <v>575</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -9269,7 +9261,7 @@
         <v>3</v>
       </c>
       <c r="B256">
-        <v>41.794871999999998</v>
+        <v>41.388890000000004</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -9277,7 +9269,7 @@
         <v>4</v>
       </c>
       <c r="B257">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -9293,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="B260">
-        <v>3801</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -9301,7 +9293,7 @@
         <v>1</v>
       </c>
       <c r="B261">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -9309,7 +9301,7 @@
         <v>2</v>
       </c>
       <c r="B262">
-        <v>592</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -9317,7 +9309,7 @@
         <v>3</v>
       </c>
       <c r="B263">
-        <v>41.794871999999998</v>
+        <v>40.294117</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -9325,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="B264">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -9333,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>5.5555553</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -9341,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <v>3903</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -9349,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="B268">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -9357,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="B269">
-        <v>607</v>
+        <v>560</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -9365,7 +9357,7 @@
         <v>3</v>
       </c>
       <c r="B270">
-        <v>41.794871999999998</v>
+        <v>40.571429999999999</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -9373,7 +9365,7 @@
         <v>4</v>
       </c>
       <c r="B271">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -9381,7 +9373,7 @@
         <v>5</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>2.7777777000000001</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -9389,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="B274">
-        <v>4022</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -9397,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="B275">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -9405,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="B276">
-        <v>619</v>
+        <v>591</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -9413,7 +9405,7 @@
         <v>3</v>
       </c>
       <c r="B277">
-        <v>41.578949999999999</v>
+        <v>40.833331999999999</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -9421,7 +9413,7 @@
         <v>4</v>
       </c>
       <c r="B278">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -9429,7 +9421,7 @@
         <v>5</v>
       </c>
       <c r="B279">
-        <v>2.7777777000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -9437,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="B281">
-        <v>4119</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -9445,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="B282">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -9453,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="B283">
-        <v>630</v>
+        <v>609</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -9461,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="B284">
-        <v>41.578949999999999</v>
+        <v>40.833331999999999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -9469,7 +9461,7 @@
         <v>4</v>
       </c>
       <c r="B285">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -9477,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="B286">
-        <v>2.7777777000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -9485,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="B288">
-        <v>4205</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -9493,7 +9485,7 @@
         <v>1</v>
       </c>
       <c r="B289">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -9501,7 +9493,7 @@
         <v>2</v>
       </c>
       <c r="B290">
-        <v>654</v>
+        <v>630</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -9509,7 +9501,7 @@
         <v>3</v>
       </c>
       <c r="B291">
-        <v>41.794871999999998</v>
+        <v>40.833331999999999</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -9517,7 +9509,7 @@
         <v>4</v>
       </c>
       <c r="B292">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -9541,7 +9533,7 @@
         <v>1</v>
       </c>
       <c r="B296">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -9549,7 +9541,7 @@
         <v>2</v>
       </c>
       <c r="B297">
-        <v>672</v>
+        <v>645</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -9557,7 +9549,7 @@
         <v>3</v>
       </c>
       <c r="B298">
-        <v>41.794871999999998</v>
+        <v>40.833331999999999</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -9565,7 +9557,7 @@
         <v>4</v>
       </c>
       <c r="B299">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -9581,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="B302">
-        <v>4406</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -9589,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="B303">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -9597,7 +9589,7 @@
         <v>2</v>
       </c>
       <c r="B304">
-        <v>686</v>
+        <v>661</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -9605,7 +9597,7 @@
         <v>3</v>
       </c>
       <c r="B305">
-        <v>41.794871999999998</v>
+        <v>40.833331999999999</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -9613,7 +9605,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -9629,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="B309">
-        <v>4501</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -9637,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="B310">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -9645,7 +9637,7 @@
         <v>2</v>
       </c>
       <c r="B311">
-        <v>703</v>
+        <v>674</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -9653,7 +9645,7 @@
         <v>3</v>
       </c>
       <c r="B312">
-        <v>41.794871999999998</v>
+        <v>40.285713000000001</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -9661,7 +9653,7 @@
         <v>4</v>
       </c>
       <c r="B313">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -9669,7 +9661,7 @@
         <v>5</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -9677,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="B316">
-        <v>4605</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -9685,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="B317">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -9693,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="B318">
-        <v>722</v>
+        <v>684</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -9701,7 +9693,7 @@
         <v>3</v>
       </c>
       <c r="B319">
-        <v>41.794871999999998</v>
+        <v>40</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -9709,7 +9701,7 @@
         <v>4</v>
       </c>
       <c r="B320">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -9717,7 +9709,7 @@
         <v>5</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>3.3333333000000001</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -9725,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="B323">
-        <v>4703</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -9733,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="B324">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -9741,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="B325">
-        <v>741</v>
+        <v>711</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -9749,7 +9741,7 @@
         <v>3</v>
       </c>
       <c r="B326">
-        <v>41.794871999999998</v>
+        <v>39.090907999999999</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -9757,7 +9749,7 @@
         <v>4</v>
       </c>
       <c r="B327">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -9765,7 +9757,7 @@
         <v>5</v>
       </c>
       <c r="B328">
-        <v>0</v>
+        <v>8.8888890000000007</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -9773,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="B330">
-        <v>4819</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -9781,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="B331">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -9789,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="B332">
-        <v>754</v>
+        <v>721</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -9797,7 +9789,7 @@
         <v>3</v>
       </c>
       <c r="B333">
-        <v>41.578949999999999</v>
+        <v>39.411766</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -9805,7 +9797,7 @@
         <v>4</v>
       </c>
       <c r="B334">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -9813,7 +9805,7 @@
         <v>5</v>
       </c>
       <c r="B335">
-        <v>2.7777777000000001</v>
+        <v>6.1111110000000002</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -9821,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B337">
-        <v>4908</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -9829,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="B338">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -9837,7 +9829,7 @@
         <v>2</v>
       </c>
       <c r="B339">
-        <v>778</v>
+        <v>746</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -9845,7 +9837,7 @@
         <v>3</v>
       </c>
       <c r="B340">
-        <v>41.794871999999998</v>
+        <v>40.27778</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -9853,7 +9845,7 @@
         <v>4</v>
       </c>
       <c r="B341">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
